--- a/决战30天知识点整理记忆表 (1) (1).xlsx
+++ b/决战30天知识点整理记忆表 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F58942-7FE6-4E90-B5C5-B23E3008D063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C95B36-AB5E-475A-92FA-D1EFF8EDEA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="130">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +941,118 @@
   </si>
   <si>
     <t>18Dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05String StringBuffer 和 StringBuilder 的区别是什么 String 为什么是不可变的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⼝和抽象类的区别是什么</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01转发和重定向区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02get和post请求的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 #{}和${}的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03Mybatis 是如何进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⾏分⻚的？分⻚插件的原理是什么？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>05Mybatis 是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽀持延迟加载？如果⽀持，它的实现原理是什么？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05Java Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01MyISAM和InnoDB区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 项目如何实现持久层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02如何处理公共异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03什么是fastDFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04fastDFS上传流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05fastDFS下载流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06如何编写的代码逻辑实现文件操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11eureka和zookeeper的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10三大范式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1368,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2649,7 +2761,9 @@
       <c r="D83" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
@@ -2662,7 +2776,9 @@
       <c r="D84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
@@ -2675,7 +2791,9 @@
       <c r="D85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="9"/>
+      <c r="E85" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
@@ -2688,7 +2806,9 @@
       <c r="D86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
@@ -2701,7 +2821,9 @@
       <c r="D87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
@@ -2714,7 +2836,9 @@
       <c r="D88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="9"/>
+      <c r="E88" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
@@ -2727,7 +2851,9 @@
       <c r="D89" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="9"/>
+      <c r="E89" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
@@ -2740,124 +2866,238 @@
       <c r="D90" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <f t="shared" ref="A91" si="9">A83+0.01</f>
         <v>1.1300000000000001</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="B92" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="B94" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="B97" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <f t="shared" ref="A99" si="10">A91+0.01</f>
         <v>1.1400000000000001</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="9"/>
+      <c r="B102" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="9"/>
+      <c r="B103" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="9"/>
+      <c r="B104" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="9"/>
+      <c r="B105" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="9"/>
+      <c r="B106" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3865,12 +4105,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A178"/>
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="A195:A202"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="A227:A234"/>
     <mergeCell ref="A139:A146"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A59:A66"/>
@@ -3883,18 +4129,12 @@
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="A123:A130"/>
     <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A178"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="A227:A234"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/决战30天知识点整理记忆表 (1) (1).xlsx
+++ b/决战30天知识点整理记忆表 (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MakeMeHero\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C95B36-AB5E-475A-92FA-D1EFF8EDEA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8385D3-7863-4CEA-88C1-D3CBE12BFBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="165">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,6 +1053,146 @@
   </si>
   <si>
     <t>10三大范式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01SPU与SKU意思及表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02什么是lua及常用介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03什么是openresty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04都哪里用到lua了,怎么写的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05什么是canal,使用方式及原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02RabitMQ的工作模式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03生产者 消费者可靠性消息投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04什么是死信队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01如何将数据导入es的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02如何实现的搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07redis如何保证缓存与数据库的双写一致性？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08什么是布隆过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09Redis 的过期策略都有哪些？内存淘汰机制都有哪些？手写一下 LRU 代码实现？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02ES 在数据量很大的情况下（数十亿级别）如何提高查询效率啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03ES 生产集群的部署架构是什么？每个索引的数据量大概有多少？每个索引大概有多少个分片？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10Redis 和 Memcached 有什么区别？Redis 的线程模型是什么？为什么 Redis 单线程却能支撑高并发？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11mysql索引数据结构及底层原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12避免索引失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05如何保证消息不被重复消费？（如何保证消息消费的幂等性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14为什么要分库分表（设计高并发系统的时候，数据库层面该如何设计）？用过哪些分库分表中间件？不同的分库分表中间件都有什么优点和缺点？你们具体是如何对数据库如何进行垂直拆分或水平拆分的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15如何实现 MySQL 的读写分离？MySQL 主从复制原理是啥？如何解决 MySQL 主从同步的延时问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01网关如何限流的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02介绍一下JWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03如何实现的鉴权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04如何实现会话保持的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01Oauth2认证流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02Oauth2授权模式,你们用的什么模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅购9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13回表是什么覆盖索引向下递推什么索引下推</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,17 +1618,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104:D106"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="89.77734375" style="12" customWidth="1"/>
     <col min="4" max="5" width="10.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3007,7 +3147,9 @@
       <c r="D99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="9"/>
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
@@ -3020,7 +3162,9 @@
       <c r="D100" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="9"/>
+      <c r="E100" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
@@ -3033,7 +3177,9 @@
       <c r="D101" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
@@ -3046,7 +3192,9 @@
       <c r="D102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
@@ -3059,7 +3207,9 @@
       <c r="D103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="9"/>
+      <c r="E103" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
@@ -3072,7 +3222,9 @@
       <c r="D104" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
@@ -3085,7 +3237,9 @@
       <c r="D105" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="9"/>
+      <c r="E105" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
@@ -3098,218 +3252,430 @@
       <c r="D106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <f t="shared" ref="A107" si="11">A99+0.01</f>
         <v>1.1500000000000001</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="B109" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="B110" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="B111" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="B112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="B113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="B114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <f t="shared" ref="A115" si="12">A107+0.01</f>
         <v>1.1600000000000001</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="B115" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="B116" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="B117" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="B120" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="B121" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="B122" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="14">
-        <f t="shared" ref="A123" si="13">A115+0.01</f>
-        <v>1.1700000000000002</v>
-      </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="B124" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="B125" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="14">
+        <f t="shared" ref="A126" si="13">A115+0.01</f>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="B127" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="9"/>
+      <c r="B128" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="9"/>
+      <c r="B129" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="9"/>
+      <c r="B130" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="14">
-        <f t="shared" ref="A131" si="14">A123+0.01</f>
-        <v>1.1800000000000002</v>
-      </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="9"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="9"/>
+      <c r="B132" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="9"/>
+      <c r="B133" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="9"/>
+      <c r="B134" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14">
+        <f t="shared" ref="A135" si="14">A126+0.01</f>
+        <v>1.1800000000000002</v>
+      </c>
       <c r="B135" s="9"/>
       <c r="C135" s="13"/>
       <c r="D135" s="9"/>
@@ -3337,10 +3703,7 @@
       <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="14">
-        <f t="shared" ref="A139" si="15">A131+0.01</f>
-        <v>1.1900000000000002</v>
-      </c>
+      <c r="A139" s="14"/>
       <c r="B139" s="9"/>
       <c r="C139" s="13"/>
       <c r="D139" s="9"/>
@@ -3368,7 +3731,10 @@
       <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14">
+        <f t="shared" ref="A143" si="15">A135+0.01</f>
+        <v>1.1900000000000002</v>
+      </c>
       <c r="B143" s="9"/>
       <c r="C143" s="13"/>
       <c r="D143" s="9"/>
@@ -3396,10 +3762,7 @@
       <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="14">
-        <f t="shared" ref="A147" si="16">A139+0.01</f>
-        <v>1.2000000000000002</v>
-      </c>
+      <c r="A147" s="14"/>
       <c r="B147" s="9"/>
       <c r="C147" s="13"/>
       <c r="D147" s="9"/>
@@ -3427,7 +3790,10 @@
       <c r="E150" s="9"/>
     </row>
     <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14">
+        <f t="shared" ref="A151" si="16">A143+0.01</f>
+        <v>1.2000000000000002</v>
+      </c>
       <c r="B151" s="9"/>
       <c r="C151" s="13"/>
       <c r="D151" s="9"/>
@@ -3455,10 +3821,7 @@
       <c r="E154" s="9"/>
     </row>
     <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="14">
-        <f t="shared" ref="A155" si="17">A147+0.01</f>
-        <v>1.2100000000000002</v>
-      </c>
+      <c r="A155" s="14"/>
       <c r="B155" s="9"/>
       <c r="C155" s="13"/>
       <c r="D155" s="9"/>
@@ -3486,7 +3849,10 @@
       <c r="E158" s="9"/>
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14">
+        <f t="shared" ref="A159" si="17">A151+0.01</f>
+        <v>1.2100000000000002</v>
+      </c>
       <c r="B159" s="9"/>
       <c r="C159" s="13"/>
       <c r="D159" s="9"/>
@@ -3514,10 +3880,7 @@
       <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="14">
-        <f t="shared" ref="A163" si="18">A155+0.01</f>
-        <v>1.2200000000000002</v>
-      </c>
+      <c r="A163" s="14"/>
       <c r="B163" s="9"/>
       <c r="C163" s="13"/>
       <c r="D163" s="9"/>
@@ -3545,7 +3908,10 @@
       <c r="E166" s="9"/>
     </row>
     <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="14"/>
+      <c r="A167" s="14">
+        <f t="shared" ref="A167" si="18">A159+0.01</f>
+        <v>1.2200000000000002</v>
+      </c>
       <c r="B167" s="9"/>
       <c r="C167" s="13"/>
       <c r="D167" s="9"/>
@@ -3573,10 +3939,7 @@
       <c r="E170" s="9"/>
     </row>
     <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="14">
-        <f t="shared" ref="A171" si="19">A163+0.01</f>
-        <v>1.2300000000000002</v>
-      </c>
+      <c r="A171" s="14"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13"/>
       <c r="D171" s="9"/>
@@ -3604,7 +3967,10 @@
       <c r="E174" s="9"/>
     </row>
     <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14">
+        <f t="shared" ref="A175" si="19">A167+0.01</f>
+        <v>1.2300000000000002</v>
+      </c>
       <c r="B175" s="9"/>
       <c r="C175" s="13"/>
       <c r="D175" s="9"/>
@@ -3632,10 +3998,7 @@
       <c r="E178" s="9"/>
     </row>
     <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="14">
-        <f t="shared" ref="A179" si="20">A171+0.01</f>
-        <v>1.2400000000000002</v>
-      </c>
+      <c r="A179" s="14"/>
       <c r="B179" s="9"/>
       <c r="C179" s="13"/>
       <c r="D179" s="9"/>
@@ -3663,7 +4026,10 @@
       <c r="E182" s="9"/>
     </row>
     <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14">
+        <f t="shared" ref="A183" si="20">A175+0.01</f>
+        <v>1.2400000000000002</v>
+      </c>
       <c r="B183" s="9"/>
       <c r="C183" s="13"/>
       <c r="D183" s="9"/>
@@ -3691,10 +4057,7 @@
       <c r="E186" s="9"/>
     </row>
     <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="14">
-        <f t="shared" ref="A187" si="21">A179+0.01</f>
-        <v>1.2500000000000002</v>
-      </c>
+      <c r="A187" s="14"/>
       <c r="B187" s="9"/>
       <c r="C187" s="13"/>
       <c r="D187" s="9"/>
@@ -3722,7 +4085,10 @@
       <c r="E190" s="9"/>
     </row>
     <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="14"/>
+      <c r="A191" s="14">
+        <f t="shared" ref="A191" si="21">A183+0.01</f>
+        <v>1.2500000000000002</v>
+      </c>
       <c r="B191" s="9"/>
       <c r="C191" s="13"/>
       <c r="D191" s="9"/>
@@ -3750,10 +4116,7 @@
       <c r="E194" s="9"/>
     </row>
     <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="14">
-        <f t="shared" ref="A195" si="22">A187+0.01</f>
-        <v>1.2600000000000002</v>
-      </c>
+      <c r="A195" s="14"/>
       <c r="B195" s="9"/>
       <c r="C195" s="13"/>
       <c r="D195" s="9"/>
@@ -3781,7 +4144,10 @@
       <c r="E198" s="9"/>
     </row>
     <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14">
+        <f t="shared" ref="A199" si="22">A191+0.01</f>
+        <v>1.2600000000000002</v>
+      </c>
       <c r="B199" s="9"/>
       <c r="C199" s="13"/>
       <c r="D199" s="9"/>
@@ -3809,10 +4175,7 @@
       <c r="E202" s="9"/>
     </row>
     <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="14">
-        <f t="shared" ref="A203" si="23">A195+0.01</f>
-        <v>1.2700000000000002</v>
-      </c>
+      <c r="A203" s="14"/>
       <c r="B203" s="9"/>
       <c r="C203" s="13"/>
       <c r="D203" s="9"/>
@@ -3840,7 +4203,10 @@
       <c r="E206" s="9"/>
     </row>
     <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="14"/>
+      <c r="A207" s="14">
+        <f t="shared" ref="A207" si="23">A199+0.01</f>
+        <v>1.2700000000000002</v>
+      </c>
       <c r="B207" s="9"/>
       <c r="C207" s="13"/>
       <c r="D207" s="9"/>
@@ -3868,10 +4234,7 @@
       <c r="E210" s="9"/>
     </row>
     <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="14">
-        <f t="shared" ref="A211" si="24">A203+0.01</f>
-        <v>1.2800000000000002</v>
-      </c>
+      <c r="A211" s="14"/>
       <c r="B211" s="9"/>
       <c r="C211" s="13"/>
       <c r="D211" s="9"/>
@@ -3899,7 +4262,10 @@
       <c r="E214" s="9"/>
     </row>
     <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="14"/>
+      <c r="A215" s="14">
+        <f t="shared" ref="A215" si="24">A207+0.01</f>
+        <v>1.2800000000000002</v>
+      </c>
       <c r="B215" s="9"/>
       <c r="C215" s="13"/>
       <c r="D215" s="9"/>
@@ -3927,10 +4293,7 @@
       <c r="E218" s="9"/>
     </row>
     <row r="219" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="14">
-        <f t="shared" ref="A219" si="25">A211+0.01</f>
-        <v>1.2900000000000003</v>
-      </c>
+      <c r="A219" s="14"/>
       <c r="B219" s="9"/>
       <c r="C219" s="13"/>
       <c r="D219" s="9"/>
@@ -3958,7 +4321,10 @@
       <c r="E222" s="9"/>
     </row>
     <row r="223" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A223" s="14"/>
+      <c r="A223" s="14">
+        <f t="shared" ref="A223" si="25">A215+0.01</f>
+        <v>1.2900000000000003</v>
+      </c>
       <c r="B223" s="9"/>
       <c r="C223" s="13"/>
       <c r="D223" s="9"/>
@@ -3986,10 +4352,7 @@
       <c r="E226" s="9"/>
     </row>
     <row r="227" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="14">
-        <f t="shared" ref="A227" si="26">A219+0.01</f>
-        <v>1.3000000000000003</v>
-      </c>
+      <c r="A227" s="14"/>
       <c r="B227" s="9"/>
       <c r="C227" s="13"/>
       <c r="D227" s="9"/>
@@ -4017,7 +4380,10 @@
       <c r="E230" s="9"/>
     </row>
     <row r="231" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="14"/>
+      <c r="A231" s="14">
+        <f t="shared" ref="A231" si="26">A223+0.01</f>
+        <v>1.3000000000000003</v>
+      </c>
       <c r="B231" s="9"/>
       <c r="C231" s="13"/>
       <c r="D231" s="9"/>
@@ -4045,10 +4411,7 @@
       <c r="E234" s="9"/>
     </row>
     <row r="235" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="14">
-        <f t="shared" ref="A235" si="27">A227+0.01</f>
-        <v>1.3100000000000003</v>
-      </c>
+      <c r="A235" s="14"/>
       <c r="B235" s="9"/>
       <c r="C235" s="13"/>
       <c r="D235" s="9"/>
@@ -4076,7 +4439,10 @@
       <c r="E238" s="9"/>
     </row>
     <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14">
+        <f t="shared" ref="A239" si="27">A231+0.01</f>
+        <v>1.3100000000000003</v>
+      </c>
       <c r="B239" s="9"/>
       <c r="C239" s="13"/>
       <c r="D239" s="9"/>
@@ -4103,21 +4469,49 @@
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
     </row>
+    <row r="243" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="14"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="14"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+    </row>
+    <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="14"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+    </row>
+    <row r="246" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="14"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="A147:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A170"/>
-    <mergeCell ref="A171:A178"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A195:A202"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="A211:A218"/>
-    <mergeCell ref="A219:A226"/>
-    <mergeCell ref="A227:A234"/>
-    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="A151:A158"/>
+    <mergeCell ref="A159:A166"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="A175:A182"/>
+    <mergeCell ref="A183:A190"/>
+    <mergeCell ref="A191:A198"/>
+    <mergeCell ref="A199:A206"/>
+    <mergeCell ref="A207:A214"/>
+    <mergeCell ref="A215:A222"/>
+    <mergeCell ref="A223:A230"/>
+    <mergeCell ref="A231:A238"/>
+    <mergeCell ref="A143:A150"/>
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A59:A66"/>
     <mergeCell ref="A67:A74"/>
@@ -4126,9 +4520,9 @@
     <mergeCell ref="A91:A98"/>
     <mergeCell ref="A99:A106"/>
     <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A115:A125"/>
+    <mergeCell ref="A126:A134"/>
+    <mergeCell ref="A135:A142"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
